--- a/public/Reporte_por_personal.xlsx
+++ b/public/Reporte_por_personal.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>REPORTE DE RECEPCIÓN Y ENTREGA POR EMPLEADO</t>
   </si>
   <si>
-    <t>DEL 2023/11/04 AL 2023/12/31</t>
+    <t>DEL 2023/01/01 AL 2023/12/31</t>
   </si>
   <si>
     <t>No E/S</t>
@@ -50,15 +50,24 @@
     <t>RECEPCIONES</t>
   </si>
   <si>
+    <t>2023/11/03</t>
+  </si>
+  <si>
+    <t>CHAMPIÑONES (EN LATA 400 GRAMOS)</t>
+  </si>
+  <si>
+    <t>Gramo</t>
+  </si>
+  <si>
+    <t>PIZZA MARGARITA (TAMAÑO: MEDIANA)</t>
+  </si>
+  <si>
     <t>2023/11/04</t>
   </si>
   <si>
     <t>LEVADURA (PAQUETES DE 8 G)</t>
   </si>
   <si>
-    <t>Gramo</t>
-  </si>
-  <si>
     <t>HARINA (BOLSAS DE 4.27 KG)</t>
   </si>
   <si>
@@ -74,12 +83,27 @@
     <t>Caja</t>
   </si>
   <si>
+    <t>2023/11/09</t>
+  </si>
+  <si>
+    <t>COCA-COLA (BOTELLAS DE 2 LITROS)</t>
+  </si>
+  <si>
+    <t>Litro</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>ENTREGAS</t>
   </si>
   <si>
+    <t>JAMÓN (PAQUETES DE 1 LIBRA)</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
     <t>JUAN PEREZ MAYTA</t>
   </si>
   <si>
@@ -98,15 +122,15 @@
     <t>Manojo</t>
   </si>
   <si>
+    <t>2023/11/08</t>
+  </si>
+  <si>
     <t>SANTIAGO GUTIERREZ CARLO</t>
   </si>
   <si>
     <t>ORÉGANO SECO MOLIDO (1 LIBRA)</t>
   </si>
   <si>
-    <t>Libra</t>
-  </si>
-  <si>
     <t>PIZZA DE SALCHICHAS Y PEPERONI (TAMAÑO: MEDIANA)</t>
   </si>
   <si>
@@ -122,10 +146,10 @@
     <t>2023/11/07</t>
   </si>
   <si>
+    <t>SAL (1 Quintal)</t>
+  </si>
+  <si>
     <t>SARAH MANCILLA QUEVEDO</t>
-  </si>
-  <si>
-    <t>2023/11/03</t>
   </si>
   <si>
     <t>PEPPERONI (PAQUETES DE 100 REBANADAS)</t>
@@ -607,10 +631,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G82" sqref="G82:G82"/>
+      <selection activeCell="G107" sqref="G107:G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,7 +720,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
@@ -708,18 +732,18 @@
         <v>13</v>
       </c>
       <c r="E8" s="7">
-        <v>10.0</v>
+        <v>80.0</v>
       </c>
       <c r="F8" s="7">
-        <v>11.5</v>
+        <v>3.860625</v>
       </c>
       <c r="G8" s="7">
-        <v>115.0</v>
+        <v>308.85</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
@@ -728,116 +752,116 @@
         <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="F9" s="7">
-        <v>13.5</v>
+        <v>23.925</v>
       </c>
       <c r="G9" s="7">
-        <v>135.0</v>
+        <v>478.5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="7">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F10" s="7">
-        <v>55.68</v>
+        <v>11.5</v>
       </c>
       <c r="G10" s="7">
-        <v>278.4</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11" s="7">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="F11" s="7">
-        <v>12.909091</v>
+        <v>13.5</v>
       </c>
       <c r="G11" s="7">
-        <v>142.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F12" s="7">
-        <v>60.0</v>
+        <v>55.68</v>
       </c>
       <c r="G12" s="7">
-        <v>120.0</v>
+        <v>278.4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E13" s="7">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F13" s="7">
-        <v>8.7</v>
+        <v>12.909091</v>
       </c>
       <c r="G13" s="7">
-        <v>87.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
@@ -846,684 +870,729 @@
         <v>18</v>
       </c>
       <c r="E14" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6">
+        <v>46</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7">
         <v>80.0</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F16" s="7">
         <v>3.860625</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G16" s="7">
         <v>308.85</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="8">
-        <v>1186.25</v>
-      </c>
-    </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="6">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>10.333333</v>
+      </c>
+      <c r="G17" s="7">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6">
-        <v>10</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>13.5</v>
-      </c>
-      <c r="G18" s="7">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8">
-        <v>27.0</v>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="8">
+        <v>2128.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="G21" s="7">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5.852617</v>
+      </c>
+      <c r="G22" s="7">
+        <v>99.494</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>15.841731</v>
+      </c>
+      <c r="G23" s="7">
+        <v>158.417</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="E24" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8">
+        <v>331.661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="G30" s="7">
         <v>100.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6">
-        <v>19</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>6.96</v>
-      </c>
-      <c r="G25" s="7">
-        <v>69.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6">
-        <v>35</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>40.0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6">
-        <v>44</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>8.7</v>
-      </c>
-      <c r="G27" s="7">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8">
-        <v>296.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E31" s="7">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="F31" s="7">
-        <v>8.7</v>
+        <v>12.0</v>
       </c>
       <c r="G31" s="7">
-        <v>174.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C32" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E32" s="7">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F32" s="7">
-        <v>11.428571</v>
+        <v>30.0</v>
       </c>
       <c r="G32" s="7">
-        <v>34.286</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6">
+        <v>7</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>13.44875</v>
+      </c>
+      <c r="G33" s="7">
+        <v>161.385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>13.05</v>
+      </c>
+      <c r="G34" s="7">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6">
+        <v>9</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="D35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>20.0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6">
+        <v>11</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>31.9</v>
+      </c>
+      <c r="G36" s="7">
+        <v>478.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6">
         <v>18</v>
       </c>
-      <c r="E33" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>10.41</v>
-      </c>
-      <c r="G33" s="7">
-        <v>72.87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
+      <c r="B37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6">
         <v>19</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8">
-        <v>281.156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>6.96</v>
+      </c>
+      <c r="G38" s="7">
+        <v>69.6</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E39" s="7">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="F39" s="7">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="G39" s="7">
-        <v>150.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E40" s="7">
         <v>10.0</v>
       </c>
       <c r="F40" s="7">
-        <v>12.0</v>
+        <v>8.7</v>
       </c>
       <c r="G40" s="7">
-        <v>120.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E41" s="7">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="F41" s="7">
-        <v>10.333333</v>
+        <v>8.7</v>
       </c>
       <c r="G41" s="7">
-        <v>155.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="6">
-        <v>33</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="G42" s="7">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="6">
-        <v>36</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>40.0</v>
-      </c>
-      <c r="G43" s="7">
-        <v>40.0</v>
+      <c r="A42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="8">
+        <v>2073.985</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="6">
-        <v>40</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>10.373077</v>
-      </c>
-      <c r="G44" s="7">
-        <v>134.85</v>
-      </c>
+      <c r="A44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E45" s="7">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F45" s="7">
-        <v>8.7</v>
+        <v>30.0</v>
       </c>
       <c r="G45" s="7">
-        <v>87.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E46" s="7">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F46" s="7">
-        <v>85.0</v>
+        <v>25.7125</v>
       </c>
       <c r="G46" s="7">
-        <v>85.0</v>
+        <v>128.563</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="6">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E47" s="7">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="F47" s="7">
-        <v>12.0</v>
+        <v>8.7</v>
       </c>
       <c r="G47" s="7">
-        <v>120.0</v>
+        <v>174.0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D48" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E48" s="7">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="F48" s="7">
-        <v>14.444444</v>
+        <v>11.428571</v>
       </c>
       <c r="G48" s="7">
-        <v>130.0</v>
+        <v>34.286</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="6">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E49" s="7">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F49" s="7">
-        <v>100.0</v>
+        <v>10.41</v>
       </c>
       <c r="G49" s="7">
-        <v>500.0</v>
+        <v>72.87</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="6">
-        <v>51</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="G50" s="7">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="8">
-        <v>1566.85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="8">
+        <v>439.719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="6">
-        <v>8</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>8.7</v>
-      </c>
-      <c r="G54" s="7">
-        <v>17.4</v>
-      </c>
+      <c r="A54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E55" s="7">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="F55" s="7">
-        <v>10.0</v>
+        <v>8.7</v>
       </c>
       <c r="G55" s="7">
-        <v>40.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E56" s="7">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="F56" s="7">
-        <v>5.852617</v>
+        <v>14.444444</v>
       </c>
       <c r="G56" s="7">
-        <v>99.494</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1531,71 +1600,151 @@
         <v>16</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="6">
+        <v>24</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="6">
+        <v>30</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>10.333333</v>
+      </c>
+      <c r="G59" s="7">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="6">
         <v>33</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="7">
+      <c r="B60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="7">
         <v>1.0</v>
       </c>
-      <c r="F57" s="7">
-        <v>103.571429</v>
-      </c>
-      <c r="G57" s="7">
-        <v>103.571</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="2" t="s">
+      <c r="F60" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="6">
+        <v>36</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="6">
+        <v>40</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="8">
-        <v>260.465</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="C62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>10.373077</v>
+      </c>
+      <c r="G62" s="7">
+        <v>134.85</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E63" s="7">
         <v>10.0</v>
@@ -1609,384 +1758,834 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="6">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E64" s="7">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F64" s="7">
-        <v>8.7</v>
+        <v>85.0</v>
       </c>
       <c r="G64" s="7">
-        <v>87.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="6">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E65" s="7">
         <v>10.0</v>
       </c>
       <c r="F65" s="7">
-        <v>8.7</v>
+        <v>12.0</v>
       </c>
       <c r="G65" s="7">
-        <v>87.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="6">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E66" s="7">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="F66" s="7">
-        <v>8.7</v>
+        <v>14.444444</v>
       </c>
       <c r="G66" s="7">
-        <v>87.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="6">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E67" s="7">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="F67" s="7">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="G67" s="7">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="6">
+        <v>51</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E68" s="7">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="F68" s="7">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="G68" s="7">
-        <v>100.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="6">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E69" s="7">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="F69" s="7">
-        <v>8.7</v>
+        <v>8.779091</v>
       </c>
       <c r="G69" s="7">
-        <v>87.0</v>
+        <v>96.57</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="6">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E70" s="7">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F70" s="7">
-        <v>11.25</v>
+        <v>116.666667</v>
       </c>
       <c r="G70" s="7">
-        <v>45.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="6">
-        <v>28</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F71" s="7">
-        <v>140.0</v>
-      </c>
-      <c r="G71" s="7">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="6">
-        <v>31</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="F72" s="7">
-        <v>5.714286</v>
-      </c>
-      <c r="G72" s="7">
-        <v>40.0</v>
+      <c r="A71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="8">
+        <v>2230.42</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="6">
-        <v>37</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="F73" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="G73" s="7">
-        <v>15.0</v>
-      </c>
+      <c r="A73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="6">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E74" s="7">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F74" s="7">
-        <v>5.22</v>
+        <v>10.41</v>
       </c>
       <c r="G74" s="7">
-        <v>15.66</v>
+        <v>72.87</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="6">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E75" s="7">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="F75" s="7">
         <v>8.7</v>
       </c>
       <c r="G75" s="7">
-        <v>87.0</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="6">
+        <v>15</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>5.852617</v>
+      </c>
+      <c r="G77" s="7">
+        <v>99.494</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="6">
         <v>16</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="B78" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>103.571429</v>
+      </c>
+      <c r="G78" s="7">
+        <v>103.571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="6">
         <v>18</v>
       </c>
-      <c r="E76" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G76" s="7">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="8">
-        <v>1077.66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="B79" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="G79" s="7">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="6">
+        <v>19</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>116.666667</v>
+      </c>
+      <c r="G80" s="7">
+        <v>116.667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="8">
+        <v>493.502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="6">
         <v>12</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B86" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="G86" s="7">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="6">
+        <v>13</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="G87" s="7">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="6">
+        <v>14</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="G88" s="7">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="6">
+        <v>15</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="G89" s="7">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="6">
+        <v>17</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="6">
+        <v>21</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="6">
+        <v>22</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="G92" s="7">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="6">
+        <v>27</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="7">
+      <c r="D93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>11.25</v>
+      </c>
+      <c r="G93" s="7">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="6">
+        <v>28</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="G94" s="7">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="6">
+        <v>31</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>5.714286</v>
+      </c>
+      <c r="G95" s="7">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="6">
+        <v>37</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="G96" s="7">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="6">
+        <v>38</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>5.22</v>
+      </c>
+      <c r="G97" s="7">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="6">
+        <v>39</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="G98" s="7">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="6">
+        <v>45</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="G99" s="7">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="6">
+        <v>53</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>12.142857</v>
+      </c>
+      <c r="G100" s="7">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="8">
+        <v>1162.66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="6">
+        <v>12</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="7">
         <v>14.0</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F104" s="7">
         <v>8.939683</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G104" s="7">
         <v>125.156</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="6">
+    <row r="105" spans="1:7">
+      <c r="A105" s="6">
         <v>13</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="6" t="s">
+      <c r="B105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="G105" s="7">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="6">
         <v>17</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="F81" s="7">
-        <v>9.35</v>
-      </c>
-      <c r="G81" s="7">
-        <v>46.75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="8">
-        <v>171.906</v>
+      <c r="B106" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>6.171347</v>
+      </c>
+      <c r="G106" s="7">
+        <v>43.199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="8">
+        <v>215.105</v>
       </c>
     </row>
   </sheetData>
@@ -1995,24 +2594,24 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A107:F107"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
